--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Notification_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Notification_JS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -195,20 +195,6 @@
 };</t>
   </si>
   <si>
-    <t>wait(3);
-validate1;
-link_Click(notification_test_link);
-validate2;
-SelectTestToRun(VT200_0683_string);
-ClickRunTest(runtest_top_xpath);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-launch_App_Device(com.rhomobile.compliancetest_js/com.rhomobile.rhodes.RhodesActivity);
-CheckUITextContains(This_is_a_status_message);
-ClickUIButtonText(Confirm);</t>
-  </si>
-  <si>
     <t xml:space="preserve">validate1
 {
 validate_PageTitle=Compliance JS specs
@@ -243,22 +229,6 @@
 validate_Result="button_index":"0"
 };
 </t>
-  </si>
-  <si>
-    <t>wait(5);
-validate1;
-link_Click(notification_test_link);
-validate2;
-SelectTestToRun(VT200_0687_string);
-ClickRunTest(runtest_top_xpath);
-wait(2);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(2);
-launch_App_Device(com.rhomobile.compliancetest_js/com.rhomobile.rhodes.RhodesActivity);
-CheckUITextContains(Test_Message);
-ClickUIButtonText(yes);
-validate4;</t>
   </si>
   <si>
     <t>wait(5);
@@ -331,6 +301,76 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Notification JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0686
+};
+validate4
+{
+validate_PageTitle=Notification JS Test
+};
+</t>
+  </si>
+  <si>
+    <t>Change Start page</t>
+  </si>
+  <si>
+    <t>wait(3);
+SetStartPage(http://127.0.0.1:8082/app/);</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(notification_test_link);
+validate2;
+SelectTestToRun(VT200_0683_string);
+ClickRunTest(runtest_top_xpath);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
+CheckUITextContains(This_is_a_status_message);
+ClickUIButtonText(Confirm);</t>
+  </si>
+  <si>
+    <t>wait(5);
+validate1;
+link_Click(notification_test_link);
+validate2;
+SelectTestToRun(VT200_0687_string);
+ClickRunTest(runtest_top_xpath);
+wait(2);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(2);
+launch_App_Device(com.symbol.enterprisebrowser/com.rhomobile.rhodes.RhodesActivity);
+CheckUITextContains(Test_Message);
+ClickUIButtonText(yes);
+validate4;</t>
+  </si>
+  <si>
+    <t>wait(5);
+validate1;
+link_Click(notification_test_link);
+validate2;
+SelectTestToRun(VT200_0686_string);
+ClickRunTest(runtest_top_xpath);
+wait(3);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(5);
+SwipeNotificationAndTap(EnterpriseBrowser);
+validate4;</t>
+  </si>
+  <si>
     <t>wait(5);
 validate1;
 link_Click(notification_test_link);
@@ -341,61 +381,14 @@
 validate3;
 ClickRunTest(runtest_bottom_xpath);
 wait(5);
-SwipeNotificationAndTap(Compliance);
+SwipeNotificationAndTap(EnterpriseBrowser);
 validate4;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Notification JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0686
-};
-validate4
-{
-validate_PageTitle=Notification JS Test
-};
-</t>
-  </si>
-  <si>
-    <t>wait(5);
-validate1;
-link_Click(notification_test_link);
-validate2;
-SelectTestToRun(VT200_0686_string);
-ClickRunTest(runtest_top_xpath);
-wait(3);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(5);
-SwipeNotificationAndTap(Compliance);
-validate4;</t>
-  </si>
-  <si>
-    <t>Change Start page</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>wait(3);
-SetStartPage(http://127.0.0.1:8082/app/);</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -876,18 +869,18 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="8.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="47.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="49.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.5283203125" collapsed="true"/>
+    <col min="1" max="1" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="47.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="49" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="65.25" thickBot="1">
@@ -937,21 +930,19 @@
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F2" s="13">
         <v>1</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="153.75" thickBot="1">
@@ -978,9 +969,7 @@
         <v>24</v>
       </c>
       <c r="I3" s="10"/>
-      <c r="J3" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="J3" s="10"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="204.75" thickBot="1">
@@ -1007,9 +996,7 @@
         <v>27</v>
       </c>
       <c r="I4" s="10"/>
-      <c r="J4" s="10" t="s">
-        <v>42</v>
-      </c>
+      <c r="J4" s="10"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="166.5" thickBot="1">
@@ -1030,15 +1017,13 @@
         <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>28</v>
       </c>
       <c r="I5" s="10"/>
-      <c r="J5" s="10" t="s">
-        <v>42</v>
-      </c>
+      <c r="J5" s="10"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="192" thickBot="1">
@@ -1059,15 +1044,13 @@
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="10"/>
-      <c r="J6" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="J6" s="10"/>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="217.5" thickBot="1">
@@ -1088,15 +1071,13 @@
         <v>1</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I7" s="10"/>
-      <c r="J7" s="10" t="s">
-        <v>42</v>
-      </c>
+      <c r="J7" s="10"/>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" ht="217.5" thickBot="1">
@@ -1117,15 +1098,13 @@
         <v>1</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I8" s="10"/>
-      <c r="J8" s="10" t="s">
-        <v>42</v>
-      </c>
+      <c r="J8" s="10"/>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="255.75" thickBot="1">
@@ -1146,15 +1125,13 @@
         <v>1</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I9" s="10"/>
-      <c r="J9" s="10" t="s">
-        <v>42</v>
-      </c>
+      <c r="J9" s="10"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="217.5" thickBot="1">
@@ -1200,15 +1177,13 @@
         <v>1</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I11" s="10"/>
-      <c r="J11" s="10" t="s">
-        <v>42</v>
-      </c>
+      <c r="J11" s="10"/>
       <c r="K11" s="1"/>
     </row>
   </sheetData>
@@ -1227,9 +1202,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="35" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1">

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Notification_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Notification_JS.xlsx
@@ -324,10 +324,6 @@
   </si>
   <si>
     <t>wait(3);
-SetStartPage(http://127.0.0.1:8082/app/);</t>
-  </si>
-  <si>
-    <t>wait(3);
 validate1;
 link_Click(notification_test_link);
 validate2;
@@ -383,6 +379,18 @@
 wait(5);
 SwipeNotificationAndTap(EnterpriseBrowser);
 validate4;</t>
+  </si>
+  <si>
+    <t>wait(3);
+PullConfigxml;
+ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
+ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;);
+ChangeConfigxml(Configuration/WebServer,Enabled,&lt;Enabled VALUE="1"/&gt;);
+ChangeConfigxml(Configuration/WebServer,Port,&lt;Port VALUE="8082"/&gt;);
+ChangeConfigxml(Configuration/WebServer,WebFolder,&lt;WebFolder VALUE="\\auto\\ComplianceTest_JS\"/&gt;);
+ChangeConfigxml(Configuration/WebServer,Public,&lt;Public VALUE="1"/&gt;);
+ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
+PushConfigxml;</t>
   </si>
 </sst>
 </file>
@@ -869,7 +877,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -916,7 +924,7 @@
       </c>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="34.5" thickBot="1">
+    <row r="2" spans="1:11" ht="243" thickBot="1">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -936,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="1" t="s">
@@ -1017,7 +1025,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>28</v>
@@ -1071,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>34</v>
@@ -1098,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>35</v>
@@ -1125,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>30</v>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Notification_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Notification_JS.xlsx
@@ -384,11 +384,7 @@
     <t>wait(3);
 PullConfigxml;
 ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
-ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;);
-ChangeConfigxml(Configuration/WebServer,Enabled,&lt;Enabled VALUE="1"/&gt;);
-ChangeConfigxml(Configuration/WebServer,Port,&lt;Port VALUE="8082"/&gt;);
-ChangeConfigxml(Configuration/WebServer,WebFolder,&lt;WebFolder VALUE="\\auto\\ComplianceTest_JS\"/&gt;);
-ChangeConfigxml(Configuration/WebServer,Public,&lt;Public VALUE="1"/&gt;);
+ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\ComplianceTest_JS\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
 ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
 PushConfigxml;</t>
   </si>
@@ -877,7 +873,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -924,7 +920,7 @@
       </c>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="243" thickBot="1">
+    <row r="2" spans="1:11" ht="166.5" thickBot="1">
       <c r="A2" s="13">
         <v>1</v>
       </c>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Notification_JS.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EB_Notification_JS.xlsx
@@ -147,40 +147,6 @@
 ClickUIButtonText(click_to_hide);</t>
   </si>
   <si>
-    <t>wait(5);
-validate1;
-link_Click(notification_test_link);
-validate2;
-SelectTestToRun(VT200_0681_string);
-ClickRunTest(runtest_top_xpath);
-wait(2);
-validate3;
-ClickRunTest(runtest_bottom_xpath);
-wait(3);
-CheckUITextContains(This_is_a_pop_up_for_hide);
-wait(10);
-TakeScreenshot(VT200_0681_afterhide);
-validate5;</t>
-  </si>
-  <si>
-    <t>validate1
-{
-validate_PageTitle=Compliance JS specs
-};
-validate2
-{
-validate_PageTitle=Notification JS Test
-};
-validate3
-{
-validate_Text_Exists=VT200-0681
-};
-validate5
-{
-validate_Screenshot=VT200_0681_afterhide
-};</t>
-  </si>
-  <si>
     <t>validate1
 {
 validate_PageTitle=Compliance JS specs
@@ -387,6 +353,35 @@
 ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\ComplianceTest_JS\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
 ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="0"/&gt;);
 PushConfigxml;</t>
+  </si>
+  <si>
+    <t>wait(5);
+validate1;
+link_Click(notification_test_link);
+validate2;
+SelectTestToRun(VT200_0681_string);
+ClickRunTest(runtest_top_xpath);
+wait(2);
+validate3;
+ClickRunTest(runtest_bottom_xpath);
+wait(3);
+CheckUITextContains(This_is_a_pop_up_for_hide);
+wait(10);
+CheckUITextContains(hidepopup);</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Compliance JS specs
+};
+validate2
+{
+validate_PageTitle=Notification JS Test
+};
+validate3
+{
+validate_Text_Exists=VT200-0681
+};</t>
   </si>
 </sst>
 </file>
@@ -872,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -934,13 +929,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F2" s="13">
         <v>1</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="1" t="s">
@@ -976,7 +971,7 @@
       <c r="J3" s="10"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="204.75" thickBot="1">
+    <row r="4" spans="1:11" ht="166.5" thickBot="1">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -994,10 +989,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
@@ -1021,10 +1016,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
@@ -1048,10 +1043,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -1075,10 +1070,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -1102,10 +1097,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -1129,10 +1124,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -1181,10 +1176,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
